--- a/dados_nfe_extraidos.xlsx
+++ b/dados_nfe_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,34 +478,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASSOCIACAO DOS CATADORES DE MATERIAIS RECICLAVEIS DE LAGOA S</t>
+          <t>DOCUMENTO AUXILIAR DA NOTA FISCAL ELETRÔNICA ENTRADA SAÍDA1 Nº</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>13.125.639/9823-22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>REM COMERCIO DE RESIDUOS BANDEIRANTE LTDA VALOR TOTAL R</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07.121.298/0001-37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000003505</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>259352</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>31250107121298000137550010000035051007135058-nfe.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DOCUMENTO AUXILIAR DA NOTA FISCAL ELETRÔNICA ENTRADA SAÍDA1 Nº</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.125.640/3219-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>REM GERDAU ACOS LONGOS S A VALOR TOTAL R</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>07.121.298/0001-37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000003507</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>253300</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DE MATERIAIS RECICLAVEIS FLSCAL ELCTRNICA IIIIIFT DI HI III H IIII II DE LAGOA S O _ ENTRADA CLOVI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>05.742.826/0001-40</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>16.642.662/0004-48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000000563</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>8316.5</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>OY233500662BR_004.pdf</t>
         </is>

--- a/dados_nfe_extraidos.xlsx
+++ b/dados_nfe_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DOCUMENTO AUXILIAR DA NOTA FISCAL ELETRÔNICA ENTRADA SAÍDA1 Nº</t>
+          <t>DOCUMENTO AUXILIAR DA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DOCUMENTO AUXILIAR DA NOTA FISCAL ELETRÔNICA ENTRADA SAÍDA1 Nº</t>
+          <t>DOCUMENTO AUXILIAR DA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -551,41 +551,81 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
+          <t>31250107121298000137550010000035071007135079-nfe - Copia.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DE MATERIAIS RECICLAVEIS FLSCAL ELCTRNICA IIIIIFT DI HI III H IIII II DE LAGOA S O _ ENTRADA CLOVI</t>
+          <t>DOCUMENTO AUXILIAR DA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>13.125.640/3219-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>REM GERDAU ACOS LONGOS S A VALOR TOTAL R</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07.121.298/0001-37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000003507</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>253300</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1Ç LORA RÃ FRIA SOL COR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>05.742.826/0001-40</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>16.642.662/0004-48</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000000563</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>8316.5</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>OY233500662BR_004.pdf</t>
         </is>

--- a/dados_nfe_extraidos.xlsx
+++ b/dados_nfe_extraidos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,59 +440,99 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>arquivo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnpj_emitente</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>razao_social_emitente</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cnpj_emitente</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cnpj_destinatario</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>razao_social_destinatario</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cnpj_destinatario</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>numero_nf</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>data_nf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_total</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>arquivo</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>situacao_emitente</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>uf_emitente</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>municipio_emitente</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>atividade_emitente</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>situacao_destinatario</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>uf_destinatario</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>municipio_destinatario</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>atividade_destinatario</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DOCUMENTO AUXILIAR DA</t>
+          <t>31250107121298000137550010000035051007135058-nfe.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.125.639/9823-22</t>
+          <t>16.642.662/0004-48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REM COMERCIO DE RESIDUOS BANDEIRANTE LTDA VALOR TOTAL R</t>
+          <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,37 +542,75 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>000003505</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>06/01/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>259352</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>31250107121298000137550010000035051007135058-nfe.pdf</t>
+      <c r="G2" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9352</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos de papel e papelão</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DOCUMENTO AUXILIAR DA</t>
+          <t>31250107121298000137550010000035071007135079-nfe - Copia.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13.125.640/3219-25</t>
+          <t>07.358.761/0019-98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REM GERDAU ACOS LONGOS S A VALOR TOTAL R</t>
+          <t>GERDAU ACOS LONGOS S.A.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,37 +620,75 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>000003507</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>07/01/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>253300</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>31250107121298000137550010000035071007135079-nfe - Copia.pdf</t>
+      <c r="G3" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CONTAGEM</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos e sucatas metálicos</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DOCUMENTO AUXILIAR DA</t>
+          <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.125.640/3219-25</t>
+          <t>07.358.761/0019-98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REM GERDAU ACOS LONGOS S A VALOR TOTAL R</t>
+          <t>GERDAU ACOS LONGOS S.A.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -578,27 +698,65 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>000003507</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>07/01/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>253300</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
+      <c r="G4" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CONTAGEM</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos e sucatas metálicos</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1Ç LORA RÃ FRIA SOL COR</t>
+          <t>OY233500662BR_004.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,26 +766,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ASSOCIACAO DOS CATADORES DE MATERIAIS RECICLAVEIS DE LAGOA SANTA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.642.662/0004-48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.642.662/0004-48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>000000563</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>8316.5</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>OY233500662BR_004.pdf</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>LAGOA SANTA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Coleta de resíduos não-perigosos</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Comércio atacadista de resíduos de papel e papelão</t>
         </is>
       </c>
     </row>

--- a/dados_nfe_extraidos.xlsx
+++ b/dados_nfe_extraidos.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,14 +446,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>cnpj_destinatario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>razao_social_emitente</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cnpj_destinatario</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>razao_social_destinatario</t>
@@ -480,42 +476,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>situacao_emitente</t>
+          <t>uf_emitente</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>uf_emitente</t>
+          <t>uf_destinatario</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>municipio_emitente</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>atividade_emitente</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>situacao_destinatario</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>uf_destinatario</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>municipio_destinatario</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>atividade_destinatario</t>
+          <t>tipo_documento</t>
         </is>
       </c>
     </row>
@@ -525,42 +496,32 @@
           <t>31250107121298000137550010000035051007135058-nfe.pdf</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>16.642.662/0004-48</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>07.121.298/0001-37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>000003505</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>45663</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>9352</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>MG</t>
@@ -568,32 +529,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos de papel e papelão</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
+          <t>danfe_estruturado</t>
         </is>
       </c>
     </row>
@@ -603,42 +539,32 @@
           <t>31250107121298000137550010000035071007135079-nfe - Copia.pdf</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>07.358.761/0019-98</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>GERDAU ACOS LONGOS S.A.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>07.121.298/0001-37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>000003507</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>45664</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>3300</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>MG</t>
@@ -646,32 +572,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CONTAGEM</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos e sucatas metálicos</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
+          <t>danfe_estruturado</t>
         </is>
       </c>
     </row>
@@ -681,42 +582,32 @@
           <t>31250107121298000137550010000035071007135079-nfe.pdf</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>07.358.761/0019-98</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GERDAU ACOS LONGOS S.A.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>07.121.298/0001-37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>COOPEMAR - COOPERATIVA DE CATADORES DE MATERIAIS RECICLAVEIS DA REGIAO OESTE DE BELO HORIZONTE</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>000003507</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>45664</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>3300</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>MG</t>
@@ -724,32 +615,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CONTAGEM</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos e sucatas metálicos</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos e sucatas não-metálicos, exceto de papel e papelão</t>
+          <t>danfe_estruturado</t>
         </is>
       </c>
     </row>
@@ -766,31 +632,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>16.642.662/0004-48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>ASSOCIACAO DOS CATADORES DE MATERIAIS RECICLAVEIS DE LAGOA SANTA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.642.662/0004-48</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>COMERCIO DE RESIDUOS BANDEIRANTE LTDA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>000000563</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ATIVA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -800,32 +662,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>LAGOA SANTA</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Coleta de resíduos não-perigosos</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Comércio atacadista de resíduos de papel e papelão</t>
+          <t>documento_digitalizado</t>
         </is>
       </c>
     </row>
